--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
-    <sheet name="铺层库制作弹窗" sheetId="5" r:id="rId2"/>
-    <sheet name="选择铺层Excel文件" sheetId="6" r:id="rId3"/>
-    <sheet name="铺层数据保存路径文本框" sheetId="7" r:id="rId4"/>
+    <sheet name="控件属性已经操作方法" sheetId="8" r:id="rId2"/>
+    <sheet name="铺层库制作弹窗" sheetId="5" r:id="rId3"/>
+    <sheet name="选择铺层Excel文件" sheetId="6" r:id="rId4"/>
+    <sheet name="铺层数据保存路径文本框" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -229,7 +230,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,11 +252,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-用例的唯一标识</t>
+方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
+方式二：
+self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -277,11 +280,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-测试用例说明</t>
+通用
+特殊一
+特殊二</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -303,11 +308,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-用于操作菜单栏</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,100 +334,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-用于对比文本信息</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-用例执行状态
-执行
-不执行</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-预期值展示类型
-弹窗警告
-信息窗口
-控件文本</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-在被测模块可能有嵌套窗口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在执行每条用例前都会需要初始化模块</t>
+警告弹窗</t>
         </r>
       </text>
     </comment>
@@ -844,8 +756,215 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例的唯一标识</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+测试用例说明</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于操作菜单栏</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="114">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -887,10 +1006,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>选择铺层Excel文件浏览按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>开始制作按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -900,10 +1015,6 @@
   </si>
   <si>
     <t>选择铺层Excel文件文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据保存路径浏览按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1021,116 +1132,304 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>不拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck005</t>
+  </si>
+  <si>
+    <t>pck006</t>
+  </si>
+  <si>
+    <t>pck007</t>
+  </si>
+  <si>
+    <t>pck008</t>
+  </si>
+  <si>
+    <t>pck009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck011</t>
+  </si>
+  <si>
+    <t>pck012</t>
+  </si>
+  <si>
+    <t>pck013</t>
+  </si>
+  <si>
+    <t>pck014</t>
+  </si>
+  <si>
+    <t>拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择铺层库Exce文件!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果文本信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不拼接路径</t>
+  </si>
+  <si>
+    <t>预期值信息类型</t>
+  </si>
+  <si>
+    <t>操作窗口标题</t>
+  </si>
+  <si>
+    <t>初始化级别</t>
+  </si>
+  <si>
+    <t>信息窗口</t>
+  </si>
+  <si>
+    <t>铺层库优化工具</t>
+  </si>
+  <si>
+    <t>整个被测模块</t>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有弹窗出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗中输入文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭弹窗按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有嵌套弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗关闭按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据保存路径文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择Excel铺层文件</t>
+  </si>
+  <si>
+    <t>选择铺层数据库保存路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlyLibDb_352_541.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plylib.db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径弹窗</t>
+  </si>
+  <si>
+    <t>路径弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认另存为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择铺层Excel文件按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据库保存路径按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择铺层Excel文件文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pck002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pck003</t>
-  </si>
-  <si>
-    <t>pck001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pck004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pck005</t>
-  </si>
-  <si>
-    <t>pck006</t>
-  </si>
-  <si>
-    <t>pck007</t>
-  </si>
-  <si>
-    <t>pck008</t>
-  </si>
-  <si>
-    <t>pck009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pck010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pck011</t>
-  </si>
-  <si>
-    <t>pck012</t>
-  </si>
-  <si>
-    <t>pck013</t>
-  </si>
-  <si>
-    <t>pck014</t>
-  </si>
-  <si>
-    <t>拼接路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择铺层库Exce文件!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已选铺层库Exce文件不存在,请重新选择!OK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果文本信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>预期值信息类型</t>
-  </si>
-  <si>
-    <t>操作窗口标题</t>
-  </si>
-  <si>
-    <t>初始化级别</t>
-  </si>
-  <si>
-    <t>信息窗口</t>
-  </si>
-  <si>
-    <t>铺层库优化工具</t>
-  </si>
-  <si>
-    <t>警告弹出</t>
-  </si>
-  <si>
-    <t>整个被测模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1233,7 +1532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1247,9 +1546,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,7 +1555,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1278,7 +1601,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1564,31 +1887,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.73046875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" style="6" customWidth="1"/>
-    <col min="4" max="12" width="7.3984375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="10.86328125" style="8"/>
-    <col min="14" max="15" width="10.86328125" style="9"/>
-    <col min="16" max="16" width="10.86328125" style="8"/>
-    <col min="17" max="23" width="7.3984375" style="6" customWidth="1"/>
-    <col min="24" max="24" width="17.1328125" style="6" customWidth="1"/>
-    <col min="25" max="25" width="5.59765625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="10.86328125" style="8"/>
-    <col min="27" max="28" width="10.86328125" style="9"/>
-    <col min="29" max="29" width="10.86328125" style="8"/>
-    <col min="30" max="16384" width="10.86328125" style="6"/>
+    <col min="1" max="1" width="8.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="15" customWidth="1"/>
+    <col min="4" max="12" width="7.375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="15"/>
+    <col min="14" max="15" width="10.875" style="16"/>
+    <col min="16" max="16" width="10.875" style="15"/>
+    <col min="17" max="22" width="7.375" style="15" customWidth="1"/>
+    <col min="23" max="23" width="17.125" style="15" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="15" customWidth="1"/>
+    <col min="25" max="25" width="10.875" style="15"/>
+    <col min="26" max="27" width="10.875" style="16"/>
+    <col min="28" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,257 +1921,240 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-    </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" s="14"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="15"/>
+    </row>
+    <row r="3" spans="1:28" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="V3" s="4"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="8"/>
-    </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+    </row>
+    <row r="4" spans="1:28" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="8"/>
-      <c r="V4" s="4"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="8"/>
-    </row>
-    <row r="5" spans="1:29" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="8"/>
-    </row>
-    <row r="6" spans="1:29" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="8"/>
-    </row>
-    <row r="7" spans="1:29" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="8"/>
-    </row>
-    <row r="8" spans="1:29" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="U4" s="14"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="15"/>
+    </row>
+    <row r="5" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
-      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
       <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M4">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M1048576">
+      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1859,283 +2164,695 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9" style="10"/>
+    <col min="4" max="4" width="23.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.73046875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" style="6" customWidth="1"/>
-    <col min="4" max="12" width="7.3984375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="10.86328125" style="8"/>
-    <col min="14" max="15" width="10.86328125" style="9"/>
-    <col min="16" max="16" width="10.86328125" style="8"/>
-    <col min="17" max="23" width="7.3984375" style="6" customWidth="1"/>
-    <col min="24" max="24" width="17.1328125" style="6" customWidth="1"/>
-    <col min="25" max="25" width="5.59765625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="10.86328125" style="8"/>
-    <col min="27" max="28" width="10.86328125" style="9"/>
-    <col min="29" max="29" width="10.86328125" style="8"/>
-    <col min="30" max="16384" width="10.86328125" style="6"/>
+    <col min="1" max="1" width="8.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="15" customWidth="1"/>
+    <col min="4" max="12" width="7.375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="15"/>
+    <col min="14" max="15" width="10.875" style="16"/>
+    <col min="16" max="16" width="10.875" style="15"/>
+    <col min="17" max="22" width="7.375" style="15" customWidth="1"/>
+    <col min="23" max="23" width="17.125" style="15" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="15" customWidth="1"/>
+    <col min="25" max="25" width="10.875" style="15"/>
+    <col min="26" max="27" width="10.875" style="16"/>
+    <col min="28" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-    </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" s="14"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="15"/>
+    </row>
+    <row r="3" spans="1:28" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="V3" s="4"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="8"/>
-    </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+    </row>
+    <row r="4" spans="1:28" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="8"/>
-      <c r="V4" s="4"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="8"/>
-    </row>
-    <row r="5" spans="1:29" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="8"/>
-    </row>
-    <row r="6" spans="1:29" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="8"/>
-    </row>
-    <row r="7" spans="1:29" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="8"/>
-    </row>
-    <row r="8" spans="1:29" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="U4" s="14"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="15"/>
+    </row>
+    <row r="5" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="15"/>
+    </row>
+    <row r="7" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2143,8 +2860,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
-      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M3 M4:M1048576">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2153,34 +2870,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.73046875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" style="6" customWidth="1"/>
-    <col min="4" max="10" width="7.3984375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="23.1328125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.3984375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="10.86328125" style="8"/>
-    <col min="14" max="15" width="10.86328125" style="9"/>
-    <col min="16" max="16" width="7.3984375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="17.1328125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="5.59765625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="10.86328125" style="8"/>
-    <col min="21" max="22" width="10.86328125" style="9"/>
-    <col min="23" max="23" width="10.86328125" style="8"/>
-    <col min="24" max="16384" width="10.86328125" style="6"/>
+    <col min="1" max="1" width="8.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="15" customWidth="1"/>
+    <col min="4" max="10" width="7.375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="23.125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="7.375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="15"/>
+    <col min="14" max="15" width="10.875" style="16"/>
+    <col min="16" max="16" width="7.375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="16"/>
+    <col min="18" max="18" width="17.125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="5.625" style="15" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="15"/>
+    <col min="21" max="22" width="10.875" style="16"/>
+    <col min="23" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2191,334 +2908,342 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>68</v>
+      <c r="M2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>68</v>
+      <c r="O3" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>68</v>
+      <c r="O4" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="M5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>68</v>
+      <c r="O5" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="M6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>68</v>
+      <c r="O6" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M7">
-      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
       <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2526,17 +3251,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="12" width="9" style="16"/>
+    <col min="13" max="13" width="10.875" style="15"/>
+    <col min="14" max="16384" width="9" style="16"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,48 +3277,48 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -2597,43 +3327,44 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>68</v>
+      <c r="M2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -2642,48 +3373,48 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>68</v>
+      <c r="O3" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -2692,48 +3423,48 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>68</v>
+      <c r="O4" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -2742,94 +3473,97 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>68</v>
+      <c r="O5" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>68</v>
+      <c r="O6" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M7" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2837,8 +3571,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M6">
-      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -964,7 +964,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="116">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1423,6 +1423,14 @@
   </si>
   <si>
     <t>已选铺层库Exce文件不存在,请重新选择!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等到时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据库优化工具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1532,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1583,6 +1591,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1887,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1901,16 +1910,17 @@
     <col min="4" max="12" width="7.375" style="15" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="15"/>
     <col min="14" max="15" width="10.875" style="16"/>
-    <col min="16" max="16" width="10.875" style="15"/>
-    <col min="17" max="22" width="7.375" style="15" customWidth="1"/>
-    <col min="23" max="23" width="17.125" style="15" customWidth="1"/>
-    <col min="24" max="24" width="5.625" style="15" customWidth="1"/>
-    <col min="25" max="25" width="10.875" style="15"/>
-    <col min="26" max="27" width="10.875" style="16"/>
-    <col min="28" max="16384" width="10.875" style="15"/>
+    <col min="16" max="16" width="7.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="15"/>
+    <col min="18" max="23" width="7.375" style="15" customWidth="1"/>
+    <col min="24" max="24" width="17.125" style="15" customWidth="1"/>
+    <col min="25" max="25" width="5.625" style="15" customWidth="1"/>
+    <col min="26" max="26" width="10.875" style="15"/>
+    <col min="27" max="28" width="10.875" style="16"/>
+    <col min="29" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1957,10 +1967,13 @@
         <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
@@ -2006,155 +2019,27 @@
       <c r="O2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="X2" s="11"/>
+      <c r="V2" s="14"/>
       <c r="Y2" s="11"/>
-      <c r="Z2" s="13"/>
+      <c r="Z2" s="11"/>
       <c r="AA2" s="13"/>
-      <c r="AB2" s="15"/>
-    </row>
-    <row r="3" spans="1:28" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="U4" s="14"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="15"/>
-    </row>
-    <row r="5" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="15"/>
-    </row>
-    <row r="6" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="15"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M1048576">
-      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2167,7 +2052,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2577,10 +2462,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2591,16 +2476,17 @@
     <col min="4" max="12" width="7.375" style="15" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="15"/>
     <col min="14" max="15" width="10.875" style="16"/>
-    <col min="16" max="16" width="10.875" style="15"/>
-    <col min="17" max="22" width="7.375" style="15" customWidth="1"/>
-    <col min="23" max="23" width="17.125" style="15" customWidth="1"/>
-    <col min="24" max="24" width="5.625" style="15" customWidth="1"/>
-    <col min="25" max="25" width="10.875" style="15"/>
-    <col min="26" max="27" width="10.875" style="16"/>
-    <col min="28" max="16384" width="10.875" style="15"/>
+    <col min="16" max="16" width="7.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="15"/>
+    <col min="18" max="23" width="7.375" style="15" customWidth="1"/>
+    <col min="24" max="24" width="17.125" style="15" customWidth="1"/>
+    <col min="25" max="25" width="5.625" style="15" customWidth="1"/>
+    <col min="26" max="26" width="10.875" style="15"/>
+    <col min="27" max="28" width="10.875" style="16"/>
+    <col min="29" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2647,10 +2533,13 @@
         <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
@@ -2696,17 +2585,20 @@
       <c r="O2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="X2" s="11"/>
+      <c r="V2" s="14"/>
       <c r="Y2" s="11"/>
-      <c r="Z2" s="13"/>
+      <c r="Z2" s="11"/>
       <c r="AA2" s="13"/>
-      <c r="AB2" s="15"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="15"/>
     </row>
-    <row r="3" spans="1:28" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -2752,19 +2644,22 @@
       <c r="O3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="12"/>
+      <c r="P3" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="14"/>
       <c r="W3" s="12"/>
-      <c r="Z3" s="13"/>
+      <c r="X3" s="12"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
     </row>
-    <row r="4" spans="1:28" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
@@ -2806,53 +2701,16 @@
       <c r="O4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="U4" s="14"/>
-      <c r="X4" s="11"/>
+      <c r="P4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="V4" s="14"/>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="13"/>
+      <c r="Z4" s="11"/>
       <c r="AA4" s="13"/>
-      <c r="AB4" s="15"/>
-    </row>
-    <row r="5" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="15"/>
-    </row>
-    <row r="6" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="15"/>
-    </row>
-    <row r="7" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="15"/>
-    </row>
-    <row r="8" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="15"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2860,7 +2718,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M3 M4:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2872,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2888,16 +2746,17 @@
     <col min="12" max="12" width="7.375" style="15" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="15"/>
     <col min="14" max="15" width="10.875" style="16"/>
-    <col min="16" max="16" width="7.375" style="15" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="16"/>
-    <col min="18" max="18" width="17.125" style="15" customWidth="1"/>
-    <col min="19" max="19" width="5.625" style="15" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="15"/>
-    <col min="21" max="22" width="10.875" style="16"/>
-    <col min="23" max="16384" width="10.875" style="15"/>
+    <col min="16" max="16" width="7.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="15" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="16"/>
+    <col min="19" max="19" width="17.125" style="15" customWidth="1"/>
+    <col min="20" max="20" width="5.625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="10.875" style="15"/>
+    <col min="22" max="23" width="10.875" style="16"/>
+    <col min="24" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2944,10 +2803,13 @@
         <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -2986,16 +2848,19 @@
         <v>101</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -3036,16 +2901,19 @@
         <v>101</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -3086,16 +2954,19 @@
         <v>101</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -3135,17 +3006,20 @@
       <c r="M5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
+      <c r="N5" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -3185,17 +3059,20 @@
       <c r="M6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>15</v>
+      <c r="N6" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -3219,22 +3096,26 @@
       <c r="M7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>25</v>
+      <c r="N7" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M8" s="15"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="16"/>
+      <c r="P8" s="18"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3253,20 +3134,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="N2" sqref="N2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="12" width="9" style="16"/>
     <col min="13" max="13" width="10.875" style="15"/>
-    <col min="14" max="16384" width="9" style="16"/>
+    <col min="14" max="15" width="9" style="16"/>
+    <col min="16" max="16" width="7.625" style="18" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3313,10 +3196,13 @@
         <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -3355,14 +3241,17 @@
         <v>101</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="2"/>
+      <c r="P2" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -3403,16 +3292,19 @@
         <v>101</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3453,16 +3345,19 @@
         <v>101</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3503,16 +3398,19 @@
         <v>101</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -3553,17 +3451,17 @@
         <v>101</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="M7" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="选择铺层Excel文件" sheetId="6" r:id="rId4"/>
     <sheet name="铺层数据保存路径文本框" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1437,7 +1437,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1610,7 +1610,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1902,25 +1902,25 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="15" customWidth="1"/>
-    <col min="4" max="12" width="7.375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="15"/>
-    <col min="14" max="15" width="10.875" style="16"/>
-    <col min="16" max="16" width="7.625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="15"/>
-    <col min="18" max="23" width="7.375" style="15" customWidth="1"/>
-    <col min="24" max="24" width="17.125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="5.625" style="15" customWidth="1"/>
-    <col min="26" max="26" width="10.875" style="15"/>
-    <col min="27" max="28" width="10.875" style="16"/>
-    <col min="29" max="16384" width="10.875" style="15"/>
+    <col min="1" max="1" width="8.1328125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28.73046875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" style="15" customWidth="1"/>
+    <col min="4" max="12" width="7.3984375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.86328125" style="15"/>
+    <col min="14" max="15" width="10.86328125" style="16"/>
+    <col min="16" max="16" width="7.59765625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="10.86328125" style="15"/>
+    <col min="18" max="23" width="7.3984375" style="15" customWidth="1"/>
+    <col min="24" max="24" width="17.1328125" style="15" customWidth="1"/>
+    <col min="25" max="25" width="5.59765625" style="15" customWidth="1"/>
+    <col min="26" max="26" width="10.86328125" style="15"/>
+    <col min="27" max="28" width="10.86328125" style="16"/>
+    <col min="29" max="16384" width="10.86328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
@@ -2052,20 +2052,20 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="23.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="23.3984375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.86328125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>106</v>
@@ -2089,7 +2089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
@@ -2465,28 +2465,28 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="15" customWidth="1"/>
-    <col min="4" max="12" width="7.375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="15"/>
-    <col min="14" max="15" width="10.875" style="16"/>
-    <col min="16" max="16" width="7.625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="15"/>
-    <col min="18" max="23" width="7.375" style="15" customWidth="1"/>
-    <col min="24" max="24" width="17.125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="5.625" style="15" customWidth="1"/>
-    <col min="26" max="26" width="10.875" style="15"/>
-    <col min="27" max="28" width="10.875" style="16"/>
-    <col min="29" max="16384" width="10.875" style="15"/>
+    <col min="1" max="1" width="8.1328125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28.73046875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" style="15" customWidth="1"/>
+    <col min="4" max="12" width="7.3984375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.86328125" style="15"/>
+    <col min="14" max="15" width="10.86328125" style="16"/>
+    <col min="16" max="16" width="7.59765625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="10.86328125" style="15"/>
+    <col min="18" max="23" width="7.3984375" style="15" customWidth="1"/>
+    <col min="24" max="24" width="17.1328125" style="15" customWidth="1"/>
+    <col min="25" max="25" width="5.59765625" style="15" customWidth="1"/>
+    <col min="26" max="26" width="10.86328125" style="15"/>
+    <col min="27" max="28" width="10.86328125" style="16"/>
+    <col min="29" max="16384" width="10.86328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="AB2" s="13"/>
       <c r="AC2" s="15"/>
     </row>
-    <row r="3" spans="1:29" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="AB3" s="13"/>
       <c r="AC3" s="13"/>
     </row>
-    <row r="4" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
@@ -2736,27 +2736,27 @@
       <selection activeCell="N2" sqref="N2:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="15" customWidth="1"/>
-    <col min="4" max="10" width="7.375" style="15" customWidth="1"/>
-    <col min="11" max="11" width="23.125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="7.375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="15"/>
-    <col min="14" max="15" width="10.875" style="16"/>
-    <col min="16" max="16" width="7.625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="7.375" style="15" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="16"/>
-    <col min="19" max="19" width="17.125" style="15" customWidth="1"/>
-    <col min="20" max="20" width="5.625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="10.875" style="15"/>
-    <col min="22" max="23" width="10.875" style="16"/>
-    <col min="24" max="16384" width="10.875" style="15"/>
+    <col min="1" max="1" width="8.1328125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28.73046875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" style="15" customWidth="1"/>
+    <col min="4" max="10" width="7.3984375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="23.1328125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.86328125" style="15"/>
+    <col min="14" max="15" width="10.86328125" style="16"/>
+    <col min="16" max="16" width="7.59765625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="7.3984375" style="15" customWidth="1"/>
+    <col min="18" max="18" width="10.86328125" style="16"/>
+    <col min="19" max="19" width="17.1328125" style="15" customWidth="1"/>
+    <col min="20" max="20" width="5.59765625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="10.86328125" style="15"/>
+    <col min="22" max="23" width="10.86328125" style="16"/>
+    <col min="24" max="16384" width="10.86328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M8" s="15"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -3140,16 +3140,16 @@
       <selection activeCell="N2" sqref="N2:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="12" width="9" style="16"/>
-    <col min="13" max="13" width="10.875" style="15"/>
+    <col min="13" max="13" width="10.86328125" style="15"/>
     <col min="14" max="15" width="9" style="16"/>
-    <col min="16" max="16" width="7.625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="7.59765625" style="18" customWidth="1"/>
     <col min="17" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -13,7 +13,7 @@
     <sheet name="选择铺层Excel文件" sheetId="6" r:id="rId4"/>
     <sheet name="铺层数据保存路径文本框" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,9 +280,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -531,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -738,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -945,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -964,7 +964,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="120">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1199,9 +1199,6 @@
     <t>信息窗口</t>
   </si>
   <si>
-    <t>铺层库优化工具</t>
-  </si>
-  <si>
     <t>整个被测模块</t>
   </si>
   <si>
@@ -1229,10 +1226,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作控件后等待时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1285,10 +1278,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特殊一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Edit2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1313,10 +1302,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特殊二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Button4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1430,14 +1415,45 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>铺层数据库优化工具</t>
+    <t>操作子窗口标题</t>
+  </si>
+  <si>
+    <t>铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1610,7 +1626,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1896,31 +1912,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="28.73046875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" style="15" customWidth="1"/>
-    <col min="4" max="12" width="7.3984375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.86328125" style="15"/>
-    <col min="14" max="15" width="10.86328125" style="16"/>
-    <col min="16" max="16" width="7.59765625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="10.86328125" style="15"/>
-    <col min="18" max="23" width="7.3984375" style="15" customWidth="1"/>
-    <col min="24" max="24" width="17.1328125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="5.59765625" style="15" customWidth="1"/>
-    <col min="26" max="26" width="10.86328125" style="15"/>
-    <col min="27" max="28" width="10.86328125" style="16"/>
-    <col min="29" max="16384" width="10.86328125" style="15"/>
+    <col min="1" max="1" width="8.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="15" customWidth="1"/>
+    <col min="4" max="12" width="7.375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="15"/>
+    <col min="14" max="15" width="10.875" style="16"/>
+    <col min="16" max="16" width="7.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="15"/>
+    <col min="18" max="23" width="7.375" style="15" customWidth="1"/>
+    <col min="24" max="24" width="17.125" style="15" customWidth="1"/>
+    <col min="25" max="25" width="5.625" style="15" customWidth="1"/>
+    <col min="26" max="26" width="10.875" style="15"/>
+    <col min="27" max="28" width="10.875" style="16"/>
+    <col min="29" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1937,10 +1953,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -1964,18 +1980,21 @@
         <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -2014,23 +2033,26 @@
         <v>55</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="V2" s="14"/>
-      <c r="Y2" s="11"/>
+      <c r="R2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="W2" s="14"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="13"/>
+      <c r="AA2" s="11"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="15"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2052,32 +2074,32 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="23.3984375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.86328125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -2089,113 +2111,113 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="D3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>81</v>
+      <c r="G3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>87</v>
+      <c r="B4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>80</v>
+      <c r="B5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -2219,274 +2241,277 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>67</v>
+      <c r="E9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>89</v>
+      <c r="F10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>89</v>
+      <c r="F11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="B12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>89</v>
+      <c r="F12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="B13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>89</v>
+      <c r="F13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="28.73046875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" style="15" customWidth="1"/>
-    <col min="4" max="12" width="7.3984375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.86328125" style="15"/>
-    <col min="14" max="15" width="10.86328125" style="16"/>
-    <col min="16" max="16" width="7.59765625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="10.86328125" style="15"/>
-    <col min="18" max="23" width="7.3984375" style="15" customWidth="1"/>
-    <col min="24" max="24" width="17.1328125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="5.59765625" style="15" customWidth="1"/>
-    <col min="26" max="26" width="10.86328125" style="15"/>
-    <col min="27" max="28" width="10.86328125" style="16"/>
-    <col min="29" max="16384" width="10.86328125" style="15"/>
+    <col min="1" max="1" width="8.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="15" customWidth="1"/>
+    <col min="4" max="12" width="7.375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="15"/>
+    <col min="14" max="14" width="10.875" style="16"/>
+    <col min="15" max="15" width="6" style="18" customWidth="1"/>
+    <col min="16" max="16" width="10.875" style="16"/>
+    <col min="17" max="17" width="7.625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="15"/>
+    <col min="19" max="24" width="7.375" style="15" customWidth="1"/>
+    <col min="25" max="25" width="17.125" style="15" customWidth="1"/>
+    <col min="26" max="26" width="5.625" style="15" customWidth="1"/>
+    <col min="27" max="27" width="10.875" style="15"/>
+    <col min="28" max="29" width="10.875" style="16"/>
+    <col min="30" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2503,10 +2528,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -2530,18 +2555,21 @@
         <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -2580,27 +2608,30 @@
         <v>55</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="V2" s="14"/>
-      <c r="Y2" s="11"/>
+      <c r="R2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="W2" s="14"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="13"/>
+      <c r="AA2" s="11"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="15"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="15"/>
     </row>
-    <row r="3" spans="1:29" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -2639,29 +2670,32 @@
         <v>55</v>
       </c>
       <c r="N3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <v>3</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="12"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
       <c r="X3" s="12"/>
-      <c r="AA3" s="13"/>
+      <c r="Y3" s="12"/>
       <c r="AB3" s="13"/>
       <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:29" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -2693,24 +2727,27 @@
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="V4" s="14"/>
-      <c r="Y4" s="11"/>
+      <c r="R4" s="7"/>
+      <c r="W4" s="14"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="13"/>
+      <c r="AA4" s="11"/>
       <c r="AB4" s="13"/>
-      <c r="AC4" s="15"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2730,33 +2767,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="28.73046875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" style="15" customWidth="1"/>
-    <col min="4" max="10" width="7.3984375" style="15" customWidth="1"/>
-    <col min="11" max="11" width="23.1328125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="7.3984375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.86328125" style="15"/>
-    <col min="14" max="15" width="10.86328125" style="16"/>
-    <col min="16" max="16" width="7.59765625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="7.3984375" style="15" customWidth="1"/>
-    <col min="18" max="18" width="10.86328125" style="16"/>
-    <col min="19" max="19" width="17.1328125" style="15" customWidth="1"/>
-    <col min="20" max="20" width="5.59765625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="10.86328125" style="15"/>
-    <col min="22" max="23" width="10.86328125" style="16"/>
-    <col min="24" max="16384" width="10.86328125" style="15"/>
+    <col min="1" max="1" width="8.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="15" customWidth="1"/>
+    <col min="4" max="10" width="7.375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="23.125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="7.375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="15"/>
+    <col min="14" max="14" width="10.875" style="16"/>
+    <col min="15" max="15" width="6" style="18" customWidth="1"/>
+    <col min="16" max="16" width="10.875" style="16"/>
+    <col min="17" max="17" width="7.625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="7.375" style="15" customWidth="1"/>
+    <col min="19" max="19" width="10.875" style="16"/>
+    <col min="20" max="20" width="17.125" style="15" customWidth="1"/>
+    <col min="21" max="21" width="5.625" style="15" customWidth="1"/>
+    <col min="22" max="22" width="10.875" style="15"/>
+    <col min="23" max="24" width="10.875" style="16"/>
+    <col min="25" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2773,10 +2812,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -2800,16 +2839,19 @@
         <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -2845,22 +2887,25 @@
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="6">
+        <v>112</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -2892,28 +2937,31 @@
         <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="6">
+        <v>112</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="6">
         <v>3</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -2945,28 +2993,31 @@
         <v>13</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="6">
+        <v>112</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -2998,28 +3049,31 @@
         <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="6">
+        <v>112</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -3051,28 +3105,31 @@
         <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="6">
+        <v>112</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -3094,28 +3151,32 @@
         <v>25</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="6">
+        <v>112</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M8" s="15"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="18"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="16"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="18"/>
+      <c r="V8" s="15"/>
       <c r="W8" s="16"/>
-      <c r="X8" s="15"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3134,22 +3195,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N6"/>
+      <selection activeCell="O2" sqref="N2:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="12" width="9" style="16"/>
-    <col min="13" max="13" width="10.86328125" style="15"/>
-    <col min="14" max="15" width="9" style="16"/>
-    <col min="16" max="16" width="7.59765625" style="18" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="16"/>
+    <col min="13" max="13" width="10.875" style="15"/>
+    <col min="14" max="14" width="9" style="16"/>
+    <col min="15" max="15" width="6" style="18" customWidth="1"/>
+    <col min="16" max="16" width="9" style="16"/>
+    <col min="17" max="17" width="7.625" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3166,10 +3229,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -3193,16 +3256,19 @@
         <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -3238,20 +3304,23 @@
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="6">
+        <v>112</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -3283,28 +3352,31 @@
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="6">
+        <v>112</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="6">
         <v>3</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3336,28 +3408,31 @@
         <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="6">
+        <v>112</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3389,28 +3464,31 @@
         <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="6">
+        <v>112</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -3442,24 +3520,27 @@
         <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="6">
+        <v>112</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>36</v>
       </c>
     </row>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -280,9 +280,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-窗口一
-窗口二
-窗口三</t>
+通用
+特殊一
+特殊二</t>
         </r>
       </text>
     </comment>
@@ -964,7 +964,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="132">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1172,281 +1172,329 @@
     <t>pck014</t>
   </si>
   <si>
+    <t>请选择铺层库Exce文件!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果文本信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>预期值信息类型</t>
+  </si>
+  <si>
+    <t>操作窗口标题</t>
+  </si>
+  <si>
+    <t>初始化级别</t>
+  </si>
+  <si>
+    <t>信息窗口</t>
+  </si>
+  <si>
+    <t>整个被测模块</t>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据保存路径文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择Excel铺层文件</t>
+  </si>
+  <si>
+    <t>选择铺层数据库保存路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlyLibDb_352_541.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plylib.db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径弹窗</t>
+  </si>
+  <si>
+    <t>路径弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认另存为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择铺层Excel文件按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据库保存路径按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择铺层Excel文件文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+  </si>
+  <si>
+    <t>铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有弹窗出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗中输入文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭弹窗按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有嵌套弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗关闭按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择铺层Excel文件文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板文件按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果文本信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据库制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\PlyLibDb_352_541.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\plylib.db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据库制作已完成!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>拼接路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>请选择铺层库Exce文件!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果文本信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>预期值信息类型</t>
-  </si>
-  <si>
-    <t>操作窗口标题</t>
-  </si>
-  <si>
-    <t>初始化级别</t>
-  </si>
-  <si>
-    <t>信息窗口</t>
-  </si>
-  <si>
-    <t>整个被测模块</t>
-  </si>
-  <si>
-    <t>控件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据保存路径文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择Excel铺层文件</t>
-  </si>
-  <si>
-    <t>选择铺层数据库保存路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlyLibDb_352_541.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>plylib.db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径弹窗</t>
-  </si>
-  <si>
-    <t>路径弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认另存为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告弹窗</t>
-  </si>
-  <si>
-    <t>警告弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择铺层Excel文件按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据库保存路径按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择铺层Excel文件文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pck001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pck002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pck003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已选铺层库Exce文件不存在,请重新选择!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已选铺层库Exce文件不存在,请重新选择!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已选铺层库Exce文件不存在,请重新选择!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果等到时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作子窗口标题</t>
-  </si>
-  <si>
-    <t>铺层数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口三</t>
+    <t>拼接路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1556,7 +1604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1607,7 +1655,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1914,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1926,7 +1973,7 @@
     <col min="4" max="12" width="7.375" style="15" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="15"/>
     <col min="14" max="15" width="10.875" style="16"/>
-    <col min="16" max="16" width="7.625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="16" customWidth="1"/>
     <col min="17" max="17" width="10.875" style="15"/>
     <col min="18" max="23" width="7.375" style="15" customWidth="1"/>
     <col min="24" max="24" width="17.125" style="15" customWidth="1"/>
@@ -1938,28 +1985,28 @@
   <sheetData>
     <row r="1" spans="1:30" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -1968,84 +2015,84 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="Q2" s="6">
         <v>3</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="W2" s="14"/>
       <c r="Z2" s="11"/>
@@ -2073,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2090,16 +2137,16 @@
     <row r="1" spans="1:8" s="8" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -2113,111 +2160,111 @@
     </row>
     <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -2243,236 +2290,236 @@
     </row>
     <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2488,7 +2535,7 @@
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2499,9 +2546,9 @@
     <col min="4" max="12" width="7.375" style="15" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="15"/>
     <col min="14" max="14" width="10.875" style="16"/>
-    <col min="15" max="15" width="6" style="18" customWidth="1"/>
+    <col min="15" max="15" width="6" style="16" customWidth="1"/>
     <col min="16" max="16" width="10.875" style="16"/>
-    <col min="17" max="17" width="7.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="16" customWidth="1"/>
     <col min="18" max="18" width="10.875" style="15"/>
     <col min="19" max="24" width="7.375" style="15" customWidth="1"/>
     <col min="25" max="25" width="17.125" style="15" customWidth="1"/>
@@ -2528,10 +2575,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -2543,33 +2590,33 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -2605,22 +2652,22 @@
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="Q2" s="6">
         <v>3</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="W2" s="14"/>
       <c r="Z2" s="11"/>
@@ -2631,7 +2678,7 @@
     </row>
     <row r="3" spans="1:30" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -2667,16 +2714,16 @@
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="Q3" s="6">
         <v>3</v>
@@ -2695,7 +2742,7 @@
     </row>
     <row r="4" spans="1:30" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -2721,22 +2768,22 @@
         <v>13</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="6">
         <v>0.5</v>
@@ -2770,7 +2817,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2783,9 +2830,9 @@
     <col min="12" max="12" width="7.375" style="15" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="15"/>
     <col min="14" max="14" width="10.875" style="16"/>
-    <col min="15" max="15" width="6" style="18" customWidth="1"/>
+    <col min="15" max="15" width="6" style="16" customWidth="1"/>
     <col min="16" max="16" width="10.875" style="16"/>
-    <col min="17" max="17" width="7.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="16" customWidth="1"/>
     <col min="18" max="18" width="7.375" style="15" customWidth="1"/>
     <col min="19" max="19" width="10.875" style="16"/>
     <col min="20" max="20" width="17.125" style="15" customWidth="1"/>
@@ -2812,10 +2859,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -2827,28 +2874,28 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2881,22 +2928,22 @@
         <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="6">
         <v>3</v>
@@ -2937,28 +2984,28 @@
         <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="6">
         <v>3</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2993,22 +3040,22 @@
         <v>13</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="6">
         <v>0.5</v>
@@ -3049,22 +3096,22 @@
         <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="6">
         <v>0.5</v>
@@ -3105,22 +3152,22 @@
         <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="6">
         <v>0.5</v>
@@ -3151,16 +3198,16 @@
         <v>25</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="6">
         <v>0.5</v>
@@ -3170,9 +3217,9 @@
     <row r="8" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M8" s="15"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="18"/>
+      <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="16"/>
       <c r="V8" s="15"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
@@ -3198,7 +3245,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="N2:O6"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3206,9 +3253,9 @@
     <col min="1" max="12" width="9" style="16"/>
     <col min="13" max="13" width="10.875" style="15"/>
     <col min="14" max="14" width="9" style="16"/>
-    <col min="15" max="15" width="6" style="18" customWidth="1"/>
+    <col min="15" max="15" width="6" style="16" customWidth="1"/>
     <col min="16" max="16" width="9" style="16"/>
-    <col min="17" max="17" width="7.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="16" customWidth="1"/>
     <col min="18" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -3229,10 +3276,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -3244,28 +3291,28 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3298,22 +3345,22 @@
         <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="6">
         <v>3</v>
@@ -3352,22 +3399,22 @@
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="6">
         <v>3</v>
@@ -3408,22 +3455,22 @@
         <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="6">
         <v>0.5</v>
@@ -3464,22 +3511,22 @@
         <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="6">
         <v>0.5</v>
@@ -3520,22 +3567,22 @@
         <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="6">
         <v>0.5</v>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -964,7 +964,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="135">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1495,6 +1495,18 @@
   </si>
   <si>
     <t>拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息-&gt;铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息--铺层数据库制作工具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1502,7 +1514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,6 +1574,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1604,7 +1624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1654,6 +1674,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1961,7 +1984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -2532,10 +2555,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2549,16 +2572,17 @@
     <col min="15" max="15" width="6" style="16" customWidth="1"/>
     <col min="16" max="16" width="10.875" style="16"/>
     <col min="17" max="17" width="7.625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="15"/>
-    <col min="19" max="24" width="7.375" style="15" customWidth="1"/>
-    <col min="25" max="25" width="17.125" style="15" customWidth="1"/>
-    <col min="26" max="26" width="5.625" style="15" customWidth="1"/>
-    <col min="27" max="27" width="10.875" style="15"/>
-    <col min="28" max="29" width="10.875" style="16"/>
-    <col min="30" max="16384" width="10.875" style="15"/>
+    <col min="18" max="18" width="9"/>
+    <col min="19" max="19" width="10.875" style="15"/>
+    <col min="20" max="25" width="7.375" style="15" customWidth="1"/>
+    <col min="26" max="26" width="17.125" style="15" customWidth="1"/>
+    <col min="27" max="27" width="5.625" style="15" customWidth="1"/>
+    <col min="28" max="28" width="10.875" style="15"/>
+    <col min="29" max="30" width="10.875" style="16"/>
+    <col min="31" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2611,10 +2635,13 @@
         <v>104</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
@@ -2622,7 +2649,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -2666,17 +2693,20 @@
       <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="14"/>
-      <c r="Z2" s="11"/>
+      <c r="X2" s="14"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="13"/>
+      <c r="AB2" s="11"/>
       <c r="AC2" s="13"/>
-      <c r="AD2" s="15"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="15"/>
     </row>
-    <row r="3" spans="1:30" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
@@ -2728,19 +2758,22 @@
       <c r="Q3" s="6">
         <v>3</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="12"/>
+      <c r="R3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="2"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="14"/>
       <c r="Y3" s="12"/>
-      <c r="AB3" s="13"/>
+      <c r="Z3" s="12"/>
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:30" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
@@ -2788,13 +2821,16 @@
       <c r="Q4" s="6">
         <v>0.5</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="W4" s="14"/>
-      <c r="Z4" s="11"/>
+      <c r="R4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="X4" s="14"/>
       <c r="AA4" s="11"/>
-      <c r="AB4" s="13"/>
+      <c r="AB4" s="11"/>
       <c r="AC4" s="13"/>
-      <c r="AD4" s="15"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2814,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2833,16 +2869,16 @@
     <col min="15" max="15" width="6" style="16" customWidth="1"/>
     <col min="16" max="16" width="10.875" style="16"/>
     <col min="17" max="17" width="7.625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="7.375" style="15" customWidth="1"/>
-    <col min="19" max="19" width="10.875" style="16"/>
-    <col min="20" max="20" width="17.125" style="15" customWidth="1"/>
-    <col min="21" max="21" width="5.625" style="15" customWidth="1"/>
-    <col min="22" max="22" width="10.875" style="15"/>
-    <col min="23" max="24" width="10.875" style="16"/>
-    <col min="25" max="16384" width="10.875" style="15"/>
+    <col min="19" max="19" width="7.375" style="15" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="16"/>
+    <col min="21" max="21" width="17.125" style="15" customWidth="1"/>
+    <col min="22" max="22" width="5.625" style="15" customWidth="1"/>
+    <col min="23" max="23" width="10.875" style="15"/>
+    <col min="24" max="25" width="10.875" style="16"/>
+    <col min="26" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2895,10 +2931,13 @@
         <v>104</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -2948,11 +2987,14 @@
       <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -3004,11 +3046,14 @@
       <c r="Q3" s="6">
         <v>3</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -3060,11 +3105,14 @@
       <c r="Q4" s="6">
         <v>0.5</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -3116,11 +3164,14 @@
       <c r="Q5" s="6">
         <v>0.5</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -3172,11 +3223,14 @@
       <c r="Q6" s="6">
         <v>0.5</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -3212,18 +3266,22 @@
       <c r="Q7" s="6">
         <v>0.5</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M8" s="15"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="R8"/>
+      <c r="W8" s="15"/>
       <c r="X8" s="16"/>
-      <c r="Y8" s="15"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3242,10 +3300,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3256,10 +3314,11 @@
     <col min="15" max="15" width="6" style="16" customWidth="1"/>
     <col min="16" max="16" width="9" style="16"/>
     <col min="17" max="17" width="7.625" style="16" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="16"/>
+    <col min="18" max="18" width="10.875"/>
+    <col min="19" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3312,10 +3371,13 @@
         <v>104</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -3365,9 +3427,12 @@
       <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -3419,11 +3484,14 @@
       <c r="Q3" s="6">
         <v>3</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3475,11 +3543,14 @@
       <c r="Q4" s="6">
         <v>0.5</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3531,11 +3602,14 @@
       <c r="Q5" s="6">
         <v>0.5</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -3587,7 +3661,10 @@
       <c r="Q6" s="6">
         <v>0.5</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>36</v>
       </c>
     </row>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -2143,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -2557,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
-    <sheet name="控件属性已经操作方法" sheetId="8" r:id="rId2"/>
-    <sheet name="铺层库制作弹窗" sheetId="5" r:id="rId3"/>
-    <sheet name="选择铺层Excel文件" sheetId="6" r:id="rId4"/>
-    <sheet name="铺层数据保存路径文本框" sheetId="7" r:id="rId5"/>
+    <sheet name="测试一" sheetId="9" r:id="rId2"/>
+    <sheet name="控件属性已经操作方法" sheetId="8" r:id="rId3"/>
+    <sheet name="铺层库制作弹窗" sheetId="5" r:id="rId4"/>
+    <sheet name="选择铺层Excel文件" sheetId="6" r:id="rId5"/>
+    <sheet name="铺层数据保存路径文本框" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -230,7 +231,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,13 +253,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
-方式二：
-self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+用例的唯一标识</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,13 +279,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+测试用例说明</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,11 +305,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-路径弹窗</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+用于操作菜单栏</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +331,100 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-警告弹窗</t>
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
         </r>
       </text>
     </comment>
@@ -348,7 +438,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,11 +460,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-用例的唯一标识</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
+方式二：
+self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,11 +488,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-测试用例说明</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+通用
+特殊一
+特殊二</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -422,11 +516,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-用于操作菜单栏</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+路径弹窗</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -448,100 +542,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-用于对比文本信息</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-用例执行状态
-执行
-不执行</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-预期值展示类型
-弹窗警告
-信息窗口
-控件文本</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-在被测模块可能有嵌套窗口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在执行每条用例前都会需要初始化模块</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
@@ -963,8 +964,215 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例的唯一标识</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+测试用例说明</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于操作菜单栏</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="119">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1210,10 +1418,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>文本框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1254,255 +1458,197 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>选择Excel铺层文件</t>
-  </si>
-  <si>
-    <t>选择铺层数据库保存路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlyLibDb_352_541.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>plylib.db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>路径弹窗</t>
-  </si>
-  <si>
-    <t>路径弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认另存为</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>警告弹窗</t>
   </si>
   <si>
+    <t>选择铺层Excel文件按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据库保存路径按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择铺层Excel文件文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+  </si>
+  <si>
+    <t>铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息-&gt;铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息--铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择Excel铺层文件；PlyLibDb_352_541.xlsx；打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择铺层数据库保存路径；plylib.db；保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认另存为；是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>警告弹窗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择铺层Excel文件按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据库保存路径按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择铺层Excel文件文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pck001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pck002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pck003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已选铺层库Exce文件不存在,请重新选择!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已选铺层库Exce文件不存在,请重新选择!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已选铺层库Exce文件不存在,请重新选择!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作子窗口标题</t>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>csh001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息-&gt;铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据库制作已完成!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铺层数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择铺层Excel文件文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板文件按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果文本信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据库制作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\PlyLibDb_352_541.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\plylib.db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据库制作已完成!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼接路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼接路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层信息-&gt;铺层数据库制作工具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1624,7 +1770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1672,9 +1818,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1982,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2006,30 +2149,30 @@
     <col min="29" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -2038,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -2050,51 +2193,54 @@
         <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
@@ -2103,10 +2249,10 @@
         <v>54</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>55</v>
@@ -2114,15 +2260,18 @@
       <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="W2" s="14"/>
-      <c r="Z2" s="11"/>
+      <c r="R2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="14"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="13"/>
+      <c r="AB2" s="11"/>
       <c r="AC2" s="13"/>
-      <c r="AD2" s="15"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2141,10 +2290,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H6"/>
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M1">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+      <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2160,16 +2450,16 @@
     <row r="1" spans="1:8" s="8" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -2186,108 +2476,108 @@
         <v>56</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -2313,13 +2603,13 @@
     </row>
     <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>70</v>
@@ -2328,221 +2618,91 @@
         <v>70</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2553,12 +2713,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2599,10 +2759,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -2626,16 +2786,16 @@
         <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>50</v>
@@ -2643,13 +2803,13 @@
     </row>
     <row r="2" spans="1:31" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -2682,10 +2842,10 @@
         <v>54</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>55</v>
@@ -2693,11 +2853,11 @@
       <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>134</v>
+      <c r="R2" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="X2" s="14"/>
       <c r="AA2" s="11"/>
@@ -2708,7 +2868,7 @@
     </row>
     <row r="3" spans="1:31" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -2747,10 +2907,10 @@
         <v>54</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>55</v>
@@ -2758,8 +2918,8 @@
       <c r="Q3" s="6">
         <v>3</v>
       </c>
-      <c r="R3" s="18" t="s">
-        <v>134</v>
+      <c r="R3" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="12"/>
@@ -2775,7 +2935,7 @@
     </row>
     <row r="4" spans="1:31" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -2807,13 +2967,13 @@
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>55</v>
@@ -2821,8 +2981,8 @@
       <c r="Q4" s="6">
         <v>0.5</v>
       </c>
-      <c r="R4" s="18" t="s">
-        <v>134</v>
+      <c r="R4" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S4" s="7"/>
       <c r="X4" s="14"/>
@@ -2848,7 +3008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
@@ -2895,10 +3055,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -2922,16 +3082,16 @@
         <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>50</v>
@@ -2973,13 +3133,13 @@
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>55</v>
@@ -2987,8 +3147,8 @@
       <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>134</v>
+      <c r="R2" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>36</v>
@@ -3026,19 +3186,19 @@
         <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>55</v>
@@ -3046,11 +3206,11 @@
       <c r="Q3" s="6">
         <v>3</v>
       </c>
-      <c r="R3" s="18" t="s">
-        <v>134</v>
+      <c r="R3" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3085,19 +3245,19 @@
         <v>13</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>55</v>
@@ -3105,8 +3265,8 @@
       <c r="Q4" s="6">
         <v>0.5</v>
       </c>
-      <c r="R4" s="18" t="s">
-        <v>134</v>
+      <c r="R4" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>36</v>
@@ -3144,19 +3304,19 @@
         <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>55</v>
@@ -3164,8 +3324,8 @@
       <c r="Q5" s="6">
         <v>0.5</v>
       </c>
-      <c r="R5" s="18" t="s">
-        <v>134</v>
+      <c r="R5" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>36</v>
@@ -3203,19 +3363,19 @@
         <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>55</v>
@@ -3223,8 +3383,8 @@
       <c r="Q6" s="6">
         <v>0.5</v>
       </c>
-      <c r="R6" s="18" t="s">
-        <v>134</v>
+      <c r="R6" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>36</v>
@@ -3252,13 +3412,13 @@
         <v>25</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>55</v>
@@ -3266,8 +3426,8 @@
       <c r="Q7" s="6">
         <v>0.5</v>
       </c>
-      <c r="R7" s="18" t="s">
-        <v>134</v>
+      <c r="R7" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S7" s="3"/>
     </row>
@@ -3298,12 +3458,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3335,10 +3495,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -3362,16 +3522,16 @@
         <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>50</v>
@@ -3413,13 +3573,13 @@
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>55</v>
@@ -3427,8 +3587,8 @@
       <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>134</v>
+      <c r="R2" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S2" s="2"/>
     </row>
@@ -3464,19 +3624,19 @@
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>55</v>
@@ -3484,8 +3644,8 @@
       <c r="Q3" s="6">
         <v>3</v>
       </c>
-      <c r="R3" s="18" t="s">
-        <v>134</v>
+      <c r="R3" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>36</v>
@@ -3523,19 +3683,19 @@
         <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>55</v>
@@ -3543,8 +3703,8 @@
       <c r="Q4" s="6">
         <v>0.5</v>
       </c>
-      <c r="R4" s="18" t="s">
-        <v>134</v>
+      <c r="R4" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>36</v>
@@ -3582,19 +3742,19 @@
         <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>55</v>
@@ -3602,8 +3762,8 @@
       <c r="Q5" s="6">
         <v>0.5</v>
       </c>
-      <c r="R5" s="18" t="s">
-        <v>134</v>
+      <c r="R5" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>36</v>
@@ -3641,19 +3801,19 @@
         <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>55</v>
@@ -3661,8 +3821,8 @@
       <c r="Q6" s="6">
         <v>0.5</v>
       </c>
-      <c r="R6" s="18" t="s">
-        <v>134</v>
+      <c r="R6" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>36</v>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -1172,7 +1172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="120">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1653,6 +1653,10 @@
   </si>
   <si>
     <t>铺层信息--铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2125,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2141,15 +2145,17 @@
     <col min="14" max="15" width="10.875" style="16"/>
     <col min="16" max="16" width="7.625" style="16" customWidth="1"/>
     <col min="17" max="17" width="10.875" style="15"/>
-    <col min="18" max="23" width="7.375" style="15" customWidth="1"/>
-    <col min="24" max="24" width="17.125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="5.625" style="15" customWidth="1"/>
-    <col min="26" max="26" width="10.875" style="15"/>
-    <col min="27" max="28" width="10.875" style="16"/>
-    <col min="29" max="16384" width="10.875" style="15"/>
+    <col min="18" max="18" width="7.375" style="15" customWidth="1"/>
+    <col min="19" max="19" width="13.5" style="7" customWidth="1"/>
+    <col min="20" max="24" width="7.375" style="15" customWidth="1"/>
+    <col min="25" max="25" width="17.125" style="15" customWidth="1"/>
+    <col min="26" max="26" width="5.625" style="15" customWidth="1"/>
+    <col min="27" max="27" width="10.875" style="15"/>
+    <col min="28" max="29" width="10.875" style="16"/>
+    <col min="30" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2204,11 +2210,14 @@
       <c r="R1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -2263,20 +2272,51 @@
       <c r="R2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="2"/>
+      <c r="T2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="AA2" s="11"/>
+      <c r="Y2" s="14"/>
       <c r="AB2" s="11"/>
-      <c r="AC2" s="13"/>
+      <c r="AC2" s="11"/>
       <c r="AD2" s="13"/>
-      <c r="AE2" s="15"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="15"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 S3:S1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -2290,15 +2330,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="19" max="19" width="13.5" style="7" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2353,11 +2396,14 @@
       <c r="R1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>110</v>
       </c>
@@ -2412,15 +2458,46 @@
       <c r="R2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="6"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 S3:S1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2715,10 +2792,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2733,16 +2810,17 @@
     <col min="16" max="16" width="10.875" style="16"/>
     <col min="17" max="17" width="7.625" style="16" customWidth="1"/>
     <col min="18" max="18" width="9"/>
-    <col min="19" max="19" width="10.875" style="15"/>
-    <col min="20" max="25" width="7.375" style="15" customWidth="1"/>
-    <col min="26" max="26" width="17.125" style="15" customWidth="1"/>
-    <col min="27" max="27" width="5.625" style="15" customWidth="1"/>
-    <col min="28" max="28" width="10.875" style="15"/>
-    <col min="29" max="30" width="10.875" style="16"/>
-    <col min="31" max="16384" width="10.875" style="15"/>
+    <col min="19" max="19" width="13.5" style="7" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="15"/>
+    <col min="21" max="26" width="7.375" style="15" customWidth="1"/>
+    <col min="27" max="27" width="17.125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="5.625" style="15" customWidth="1"/>
+    <col min="29" max="29" width="10.875" style="15"/>
+    <col min="30" max="31" width="10.875" style="16"/>
+    <col min="32" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2797,11 +2875,14 @@
       <c r="R1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -2856,17 +2937,18 @@
       <c r="R2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="2"/>
+      <c r="T2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="AA2" s="11"/>
+      <c r="Y2" s="14"/>
       <c r="AB2" s="11"/>
-      <c r="AC2" s="13"/>
+      <c r="AC2" s="11"/>
       <c r="AD2" s="13"/>
-      <c r="AE2" s="15"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="15"/>
+    </row>
+    <row r="3" spans="1:32" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2921,19 +3003,20 @@
       <c r="R3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="12"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="2"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="14"/>
       <c r="Z3" s="12"/>
-      <c r="AC3" s="13"/>
+      <c r="AA3" s="12"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
-    </row>
-    <row r="4" spans="1:31" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF3" s="13"/>
+    </row>
+    <row r="4" spans="1:32" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -2984,18 +3067,43 @@
       <c r="R4" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="X4" s="14"/>
-      <c r="AA4" s="11"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="7"/>
+      <c r="Y4" s="14"/>
       <c r="AB4" s="11"/>
-      <c r="AC4" s="13"/>
+      <c r="AC4" s="11"/>
       <c r="AD4" s="13"/>
-      <c r="AE4" s="15"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="15"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="S12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 S3:S1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -3010,10 +3118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3029,16 +3137,17 @@
     <col min="15" max="15" width="6" style="16" customWidth="1"/>
     <col min="16" max="16" width="10.875" style="16"/>
     <col min="17" max="17" width="7.625" style="16" customWidth="1"/>
-    <col min="19" max="19" width="7.375" style="15" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="16"/>
-    <col min="21" max="21" width="17.125" style="15" customWidth="1"/>
-    <col min="22" max="22" width="5.625" style="15" customWidth="1"/>
-    <col min="23" max="23" width="10.875" style="15"/>
-    <col min="24" max="25" width="10.875" style="16"/>
-    <col min="26" max="16384" width="10.875" style="15"/>
+    <col min="19" max="19" width="13.5" style="7" customWidth="1"/>
+    <col min="20" max="20" width="7.375" style="15" customWidth="1"/>
+    <col min="21" max="21" width="10.875" style="16"/>
+    <col min="22" max="22" width="17.125" style="15" customWidth="1"/>
+    <col min="23" max="23" width="5.625" style="15" customWidth="1"/>
+    <col min="24" max="24" width="10.875" style="15"/>
+    <col min="25" max="26" width="10.875" style="16"/>
+    <col min="27" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3093,11 +3202,14 @@
       <c r="R1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -3150,11 +3262,12 @@
       <c r="R2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2"/>
+      <c r="T2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -3209,11 +3322,12 @@
       <c r="R3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -3268,11 +3382,12 @@
       <c r="R4" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -3327,11 +3442,12 @@
       <c r="R5" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -3386,11 +3502,12 @@
       <c r="R6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -3430,23 +3547,37 @@
         <v>99</v>
       </c>
       <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M8" s="15"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="16"/>
+      <c r="S8" s="3"/>
+      <c r="X8" s="15"/>
       <c r="Y8" s="16"/>
-      <c r="Z8" s="15"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="15"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="S12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 S3:S1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -3460,10 +3591,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3475,10 +3606,11 @@
     <col min="16" max="16" width="9" style="16"/>
     <col min="17" max="17" width="7.625" style="16" customWidth="1"/>
     <col min="18" max="18" width="10.875"/>
-    <col min="19" max="16384" width="9" style="16"/>
+    <col min="19" max="19" width="13.5" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3533,11 +3665,14 @@
       <c r="R1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -3591,8 +3726,9 @@
         <v>99</v>
       </c>
       <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -3647,11 +3783,12 @@
       <c r="R3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3706,11 +3843,12 @@
       <c r="R4" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3765,11 +3903,12 @@
       <c r="R5" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -3824,14 +3963,33 @@
       <c r="R6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 S3:S1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -1172,7 +1172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="121">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1282,10 +1282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PlyLibDb.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>汉字汉字汉字</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1564,10 +1560,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>拼接路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>模块唯一标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1657,6 +1649,18 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择铺层库Exce文!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlyLibDb.xlsx][拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！@#￥%……&amp;*（）——+|}{【】、？》。、!@#$%^&amp;*()_+-=\][{}|/.&gt;?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2132,7 +2136,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2172,10 +2176,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -2187,57 +2191,53 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>
@@ -2249,33 +2249,31 @@
         <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="Q2" s="6">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="6" t="s">
-        <v>95</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="7"/>
       <c r="Y2" s="14"/>
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
@@ -2316,7 +2314,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 S3:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576 L1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -2358,10 +2356,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -2373,51 +2371,51 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -2426,37 +2424,37 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="Q2" s="6">
         <v>1</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="6"/>
@@ -2527,16 +2525,16 @@
     <row r="1" spans="1:8" s="8" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -2550,111 +2548,111 @@
     </row>
     <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -2680,106 +2678,106 @@
     </row>
     <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2793,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2837,10 +2835,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -2852,45 +2850,45 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -2914,32 +2912,32 @@
         <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="Q2" s="6">
         <v>3</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y2" s="14"/>
       <c r="AB2" s="11"/>
@@ -2950,10 +2948,10 @@
     </row>
     <row r="3" spans="1:32" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -2980,28 +2978,28 @@
         <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="Q3" s="6">
         <v>3</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="2"/>
@@ -3018,10 +3016,10 @@
     </row>
     <row r="4" spans="1:32" s="12" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -3044,28 +3042,28 @@
         <v>13</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="6">
         <v>0.5</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="7"/>
@@ -3120,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3164,10 +3162,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -3179,39 +3177,39 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -3239,37 +3237,35 @@
         <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="6">
         <v>3</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S2" s="2"/>
-      <c r="T2" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:27" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -3278,7 +3274,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -3299,37 +3295,35 @@
         <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="6">
         <v>3</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:27" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -3338,7 +3332,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -3359,37 +3353,35 @@
         <v>13</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="6">
         <v>0.5</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:27" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -3398,7 +3390,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -3419,37 +3411,35 @@
         <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="6">
         <v>0.5</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:27" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -3458,7 +3448,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
@@ -3479,37 +3469,35 @@
         <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="6">
         <v>0.5</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:27" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -3526,25 +3514,25 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="6">
         <v>0.5</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -3593,7 +3581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
@@ -3627,10 +3615,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -3642,39 +3630,39 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -3702,35 +3690,35 @@
         <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="6">
         <v>3</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -3742,7 +3730,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
@@ -3760,37 +3748,37 @@
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="6">
         <v>3</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -3802,7 +3790,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
@@ -3820,37 +3808,37 @@
         <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="6">
         <v>0.5</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -3862,7 +3850,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
@@ -3880,40 +3868,40 @@
         <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="6">
         <v>0.5</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -3922,7 +3910,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -3940,32 +3928,32 @@
         <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="6">
         <v>0.5</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -1580,87 +1580,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>警告弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>csh001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息-&gt;铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据库制作已完成!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择铺层库Exce文!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlyLibDb.xlsx][拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！@#￥%……&amp;*（）——+|}{【】、？》。、!@#$%^&amp;*()_+-=\][{}|/.&gt;?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>确认另存为；是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮--弹窗套件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮--弹窗套件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件类型一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件类型二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>csh001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例初始化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层信息-&gt;铺层数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据库制作已完成!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层信息--铺层数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期值控件标识属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择铺层库Exce文!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlyLibDb.xlsx][拼接路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>！@#￥%……&amp;*（）——+|}{【】、？》。、!@#$%^&amp;*()_+-=\][{}|/.&gt;?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2215,7 +2215,7 @@
         <v>95</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -2249,7 +2249,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
@@ -2331,7 +2331,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2395,7 +2395,7 @@
         <v>95</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -2403,19 +2403,19 @@
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -2424,25 +2424,25 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>81</v>
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="6"/>
@@ -2491,12 +2491,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 S3:S1048576">
       <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2509,7 +2512,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2557,10 +2560,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>62</v>
@@ -2678,7 +2681,7 @@
     </row>
     <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>68</v>
@@ -2704,7 +2707,7 @@
     </row>
     <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>68</v>
@@ -2730,7 +2733,7 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>68</v>
@@ -2742,7 +2745,7 @@
         <v>68</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>68</v>
@@ -2756,7 +2759,7 @@
     </row>
     <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>68</v>
@@ -2768,7 +2771,7 @@
         <v>68</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>68</v>
@@ -2792,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2874,7 +2877,7 @@
         <v>95</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -3118,7 +3121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2:T7"/>
     </sheetView>
   </sheetViews>
@@ -3201,7 +3204,7 @@
         <v>95</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -3274,7 +3277,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -3390,7 +3393,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -3654,7 +3657,7 @@
         <v>95</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -2330,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2795,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -488,9 +488,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -1548,10 +1548,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作控件后等待时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1661,6 +1657,10 @@
   </si>
   <si>
     <t>确认另存为；是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1778,7 +1778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1828,6 +1828,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2212,10 +2215,10 @@
         <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -2249,7 +2252,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
@@ -2270,7 +2273,7 @@
         <v>0.5</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="7"/>
@@ -2330,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -2392,10 +2395,10 @@
         <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -2403,19 +2406,19 @@
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -2424,25 +2427,25 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>81</v>
@@ -2454,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="6"/>
@@ -2511,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2560,10 +2563,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>62</v>
@@ -2628,8 +2631,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>92</v>
+      <c r="A5" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>82</v>
@@ -2655,7 +2658,7 @@
     </row>
     <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -2681,7 +2684,7 @@
     </row>
     <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>68</v>
@@ -2707,7 +2710,7 @@
     </row>
     <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>68</v>
@@ -2716,10 +2719,10 @@
         <v>68</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>68</v>
@@ -2733,7 +2736,7 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>68</v>
@@ -2745,7 +2748,7 @@
         <v>68</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>68</v>
@@ -2759,7 +2762,7 @@
     </row>
     <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>68</v>
@@ -2771,7 +2774,7 @@
         <v>68</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>68</v>
@@ -2874,10 +2877,10 @@
         <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -2891,7 +2894,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -2936,11 +2939,11 @@
         <v>3</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y2" s="14"/>
       <c r="AB2" s="11"/>
@@ -3002,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="2"/>
@@ -3066,7 +3069,7 @@
         <v>0.5</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="7"/>
@@ -3201,10 +3204,10 @@
         <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -3261,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="3"/>
@@ -3277,7 +3280,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -3319,7 +3322,7 @@
         <v>3</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -3377,7 +3380,7 @@
         <v>0.5</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -3393,7 +3396,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -3435,7 +3438,7 @@
         <v>0.5</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -3493,7 +3496,7 @@
         <v>0.5</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -3535,7 +3538,7 @@
         <v>0.5</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -3654,10 +3657,10 @@
         <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -3714,7 +3717,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -3772,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3" t="s">
@@ -3832,7 +3835,7 @@
         <v>0.5</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3" t="s">
@@ -3892,7 +3895,7 @@
         <v>0.5</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
@@ -3952,7 +3955,7 @@
         <v>0.5</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3" t="s">

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="121">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1624,10 +1624,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>铺层数据库制作已完成!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1661,6 +1657,10 @@
   </si>
   <si>
     <t>所操作控件窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据库制作已完成!！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1737,7 +1737,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1747,6 +1747,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,7 +1784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1831,6 +1837,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2218,7 +2230,7 @@
         <v>94</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -2252,7 +2264,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
@@ -2331,80 +2343,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="19" max="19" width="13.5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
@@ -2415,94 +2424,90 @@
         <v>108</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>1</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="S12" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 S3:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 L3:L1048576">
       <formula1>"执行,不执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2514,7 +2519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2632,7 +2637,7 @@
     </row>
     <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>82</v>
@@ -2774,7 +2779,7 @@
         <v>68</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>68</v>
@@ -2880,7 +2885,7 @@
         <v>94</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -3207,7 +3212,7 @@
         <v>94</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
@@ -3280,7 +3285,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -3396,7 +3401,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -3660,7 +3665,7 @@
         <v>94</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
